--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC728BC-A0F8-3241-BC3B-9D09F4B7005E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5DF3E-A36E-2F45-A819-ED76E4191A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="7" xr2:uid="{73E098EF-9F12-4A45-BF91-00B06203C89A}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="5" xr2:uid="{73E098EF-9F12-4A45-BF91-00B06203C89A}"/>
   </bookViews>
   <sheets>
     <sheet name="managers" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="programmes" sheetId="6" r:id="rId6"/>
     <sheet name="stars" sheetId="7" r:id="rId7"/>
     <sheet name="media" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">programmes!$A$1:$D$342</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5086" uniqueCount="1875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5218" uniqueCount="1910">
   <si>
     <t>Name</t>
   </si>
@@ -5744,6 +5745,111 @@
   </si>
   <si>
     <t>Birkenhead Advertiser Promotion Souvenier Special - 1938- Page 4</t>
+  </si>
+  <si>
+    <t>Tony Coombes</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers Programmes 1960-61 to 1998-99</t>
+  </si>
+  <si>
+    <t>media/Scan 32.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 2.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 3.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 4.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 5.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 6.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 7.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 8.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 9.jpeg</t>
+  </si>
+  <si>
+    <t>1969-70/Scan 10.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan 2.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan 3.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan 4.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan 5.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan 6.jpeg</t>
+  </si>
+  <si>
+    <t>1970-71/Scan 7.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 2.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 3.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 4.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 5.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 6.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 7.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 8.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 9.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 10.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 11.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 12.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 13.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 14.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 15.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 16.jpeg</t>
+  </si>
+  <si>
+    <t>1971-72/Scan 17.jpeg</t>
   </si>
 </sst>
 </file>
@@ -5797,7 +5903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5809,6 +5915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20084,11 +20191,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E61816-98D3-7840-97BB-31B7CA53ABF7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F342"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343:D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20113,7 +20219,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>29705</v>
       </c>
@@ -20127,7 +20233,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>30198</v>
       </c>
@@ -20141,7 +20247,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>30200</v>
       </c>
@@ -20155,7 +20261,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>30207</v>
       </c>
@@ -20169,7 +20275,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>30212</v>
       </c>
@@ -20183,7 +20289,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>30226</v>
       </c>
@@ -20197,7 +20303,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>30240</v>
       </c>
@@ -20211,7 +20317,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>30242</v>
       </c>
@@ -20225,7 +20331,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>30254</v>
       </c>
@@ -20239,7 +20345,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>30268</v>
       </c>
@@ -20253,7 +20359,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>30275</v>
       </c>
@@ -20267,7 +20373,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>30282</v>
       </c>
@@ -20281,7 +20387,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>30299</v>
       </c>
@@ -20295,7 +20401,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>30312</v>
       </c>
@@ -20309,7 +20415,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>30317</v>
       </c>
@@ -20323,7 +20429,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>30324</v>
       </c>
@@ -20337,7 +20443,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>30341</v>
       </c>
@@ -20351,7 +20457,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>30345</v>
       </c>
@@ -20365,7 +20471,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>30352</v>
       </c>
@@ -20379,7 +20485,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>30380</v>
       </c>
@@ -20393,7 +20499,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>30393</v>
       </c>
@@ -20407,7 +20513,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>30408</v>
       </c>
@@ -20421,7 +20527,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>30414</v>
       </c>
@@ -20435,7 +20541,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>30429</v>
       </c>
@@ -20449,7 +20555,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>30443</v>
       </c>
@@ -20463,7 +20569,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>30452</v>
       </c>
@@ -20477,7 +20583,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>30555</v>
       </c>
@@ -20491,7 +20597,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>30571</v>
       </c>
@@ -20505,7 +20611,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30585</v>
       </c>
@@ -20519,7 +20625,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30606</v>
       </c>
@@ -20533,7 +20639,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30618</v>
       </c>
@@ -20547,7 +20653,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30632</v>
       </c>
@@ -20561,7 +20667,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30639</v>
       </c>
@@ -20575,7 +20681,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>30646</v>
       </c>
@@ -20589,7 +20695,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>30676</v>
       </c>
@@ -20603,7 +20709,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>30680</v>
       </c>
@@ -20617,7 +20723,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>30688</v>
       </c>
@@ -20631,7 +20737,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>30711</v>
       </c>
@@ -20645,7 +20751,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>30715</v>
       </c>
@@ -20659,7 +20765,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>30732</v>
       </c>
@@ -20673,7 +20779,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>30736</v>
       </c>
@@ -20687,7 +20793,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>30746</v>
       </c>
@@ -20701,7 +20807,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>30758</v>
       </c>
@@ -20715,7 +20821,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>30771</v>
       </c>
@@ -20729,7 +20835,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>30786</v>
       </c>
@@ -20743,7 +20849,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>30814</v>
       </c>
@@ -20757,7 +20863,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>31276</v>
       </c>
@@ -20771,7 +20877,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>31282</v>
       </c>
@@ -20785,7 +20891,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>31285</v>
       </c>
@@ -20799,7 +20905,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>31287</v>
       </c>
@@ -20813,7 +20919,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>31290</v>
       </c>
@@ -20827,7 +20933,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>31294</v>
       </c>
@@ -20841,7 +20947,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>31296</v>
       </c>
@@ -20855,7 +20961,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>31304</v>
       </c>
@@ -20869,7 +20975,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>31307</v>
       </c>
@@ -20883,7 +20989,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>31311</v>
       </c>
@@ -20897,7 +21003,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>31318</v>
       </c>
@@ -20911,7 +21017,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>31324</v>
       </c>
@@ -20925,7 +21031,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>31332</v>
       </c>
@@ -20939,7 +21045,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>31338</v>
       </c>
@@ -20953,7 +21059,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>31342</v>
       </c>
@@ -20967,7 +21073,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>31346</v>
       </c>
@@ -20981,7 +21087,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>31349</v>
       </c>
@@ -20995,7 +21101,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>31353</v>
       </c>
@@ -21009,7 +21115,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>31356</v>
       </c>
@@ -21023,7 +21129,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>31360</v>
       </c>
@@ -21037,7 +21143,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>31367</v>
       </c>
@@ -21051,7 +21157,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>31370</v>
       </c>
@@ -21065,7 +21171,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>31374</v>
       </c>
@@ -21079,7 +21185,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>31380</v>
       </c>
@@ -21093,7 +21199,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>31388</v>
       </c>
@@ -21107,7 +21213,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>31391</v>
       </c>
@@ -21121,7 +21227,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>31395</v>
       </c>
@@ -21135,7 +21241,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>31401</v>
       </c>
@@ -21149,7 +21255,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>31407</v>
       </c>
@@ -21163,7 +21269,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>31416</v>
       </c>
@@ -21177,7 +21283,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>31423</v>
       </c>
@@ -21191,7 +21297,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>31429</v>
       </c>
@@ -21205,7 +21311,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>31436</v>
       </c>
@@ -21219,7 +21325,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>31442</v>
       </c>
@@ -21233,7 +21339,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>31443</v>
       </c>
@@ -21247,7 +21353,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>31450</v>
       </c>
@@ -21261,7 +21367,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>31458</v>
       </c>
@@ -21275,7 +21381,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>31469</v>
       </c>
@@ -21289,7 +21395,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>31471</v>
       </c>
@@ -21303,7 +21409,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>31476</v>
       </c>
@@ -21317,7 +21423,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>31478</v>
       </c>
@@ -21331,7 +21437,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>31482</v>
       </c>
@@ -21345,7 +21451,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>31486</v>
       </c>
@@ -21359,7 +21465,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>31489</v>
       </c>
@@ -21373,7 +21479,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>31493</v>
       </c>
@@ -21387,7 +21493,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>31500</v>
       </c>
@@ -21401,7 +21507,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>31502</v>
       </c>
@@ -21415,7 +21521,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>31506</v>
       </c>
@@ -21429,7 +21535,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>31514</v>
       </c>
@@ -21443,7 +21549,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>31517</v>
       </c>
@@ -21457,7 +21563,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>31520</v>
       </c>
@@ -21471,7 +21577,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>31527</v>
       </c>
@@ -21485,7 +21591,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>31531</v>
       </c>
@@ -21499,7 +21605,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>31534</v>
       </c>
@@ -21513,7 +21619,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>32249</v>
       </c>
@@ -21527,7 +21633,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>32265</v>
       </c>
@@ -22431,7 +22537,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>33369</v>
       </c>
@@ -22445,7 +22551,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>33384</v>
       </c>
@@ -22459,7 +22565,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>33390</v>
       </c>
@@ -22473,7 +22579,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>33473</v>
       </c>
@@ -22487,7 +22593,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>33477</v>
       </c>
@@ -22501,7 +22607,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>33484</v>
       </c>
@@ -22515,7 +22621,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>33488</v>
       </c>
@@ -22529,7 +22635,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>33502</v>
       </c>
@@ -22543,7 +22649,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>33506</v>
       </c>
@@ -22557,7 +22663,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>33509</v>
       </c>
@@ -22571,7 +22677,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>33512</v>
       </c>
@@ -22585,7 +22691,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>33515</v>
       </c>
@@ -22599,7 +22705,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>33519</v>
       </c>
@@ -22613,7 +22719,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>33529</v>
       </c>
@@ -22627,7 +22733,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>33533</v>
       </c>
@@ -22641,7 +22747,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>33540</v>
       </c>
@@ -22655,7 +22761,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>33547</v>
       </c>
@@ -22669,7 +22775,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>33550</v>
       </c>
@@ -22683,7 +22789,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>33564</v>
       </c>
@@ -22697,7 +22803,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>33831</v>
       </c>
@@ -22711,7 +22817,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>33835</v>
       </c>
@@ -22725,7 +22831,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>33841</v>
       </c>
@@ -22739,7 +22845,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>33844</v>
       </c>
@@ -22753,7 +22859,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>33859</v>
       </c>
@@ -22767,7 +22873,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>33862</v>
       </c>
@@ -22781,7 +22887,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>33865</v>
       </c>
@@ -22795,7 +22901,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>33876</v>
       </c>
@@ -22809,7 +22915,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>33880</v>
       </c>
@@ -22823,7 +22929,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>33887</v>
       </c>
@@ -22837,7 +22943,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>33894</v>
       </c>
@@ -22851,7 +22957,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>33907</v>
       </c>
@@ -22865,7 +22971,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>33911</v>
       </c>
@@ -22879,7 +22985,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>33922</v>
       </c>
@@ -22893,7 +22999,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>33932</v>
       </c>
@@ -22907,7 +23013,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>33942</v>
       </c>
@@ -22921,7 +23027,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>33954</v>
       </c>
@@ -22935,7 +23041,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>33957</v>
       </c>
@@ -22949,7 +23055,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>33964</v>
       </c>
@@ -22963,7 +23069,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>33971</v>
       </c>
@@ -22977,7 +23083,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>33981</v>
       </c>
@@ -22991,7 +23097,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>33984</v>
       </c>
@@ -23005,7 +23111,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>33992</v>
       </c>
@@ -23019,7 +23125,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>33995</v>
       </c>
@@ -23033,7 +23139,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>34013</v>
       </c>
@@ -23047,7 +23153,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>34023</v>
       </c>
@@ -23061,7 +23167,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>34028</v>
       </c>
@@ -23075,7 +23181,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>34041</v>
       </c>
@@ -23089,7 +23195,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>34051</v>
       </c>
@@ -23103,7 +23209,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>34061</v>
       </c>
@@ -23117,7 +23223,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>34065</v>
       </c>
@@ -23131,7 +23237,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>34071</v>
       </c>
@@ -23145,7 +23251,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>34090</v>
       </c>
@@ -23159,7 +23265,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>34093</v>
       </c>
@@ -23173,7 +23279,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>34108</v>
       </c>
@@ -23187,7 +23293,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>34202</v>
       </c>
@@ -23201,7 +23307,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>34216</v>
       </c>
@@ -23215,7 +23321,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>34219</v>
       </c>
@@ -23229,7 +23335,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>34223</v>
       </c>
@@ -23243,7 +23349,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>34226</v>
       </c>
@@ -23257,7 +23363,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>34230</v>
       </c>
@@ -23271,7 +23377,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>34233</v>
       </c>
@@ -23285,7 +23391,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>34237</v>
       </c>
@@ -23299,7 +23405,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>34244</v>
       </c>
@@ -23313,7 +23419,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>34251</v>
       </c>
@@ -23327,7 +23433,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>34264</v>
       </c>
@@ -23341,7 +23447,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>34268</v>
       </c>
@@ -23355,7 +23461,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>34275</v>
       </c>
@@ -23369,7 +23475,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>34286</v>
       </c>
@@ -23383,7 +23489,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>34303</v>
       </c>
@@ -23397,7 +23503,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>34306</v>
       </c>
@@ -23411,7 +23517,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>34314</v>
       </c>
@@ -23425,7 +23531,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>34322</v>
       </c>
@@ -23439,7 +23545,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>34330</v>
       </c>
@@ -23453,7 +23559,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>34335</v>
       </c>
@@ -23467,7 +23573,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>34350</v>
       </c>
@@ -23481,7 +23587,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>34363</v>
       </c>
@@ -23495,7 +23601,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>34376</v>
       </c>
@@ -23509,7 +23615,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>34392</v>
       </c>
@@ -23523,7 +23629,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>34398</v>
       </c>
@@ -23537,7 +23643,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>34408</v>
       </c>
@@ -23551,7 +23657,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>34418</v>
       </c>
@@ -23565,7 +23671,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>34422</v>
       </c>
@@ -23579,7 +23685,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>34428</v>
       </c>
@@ -23593,7 +23699,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>34433</v>
       </c>
@@ -23607,7 +23713,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>34447</v>
       </c>
@@ -23621,7 +23727,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>34450</v>
       </c>
@@ -23635,7 +23741,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>34462</v>
       </c>
@@ -23649,7 +23755,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>34469</v>
       </c>
@@ -23663,7 +23769,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>34472</v>
       </c>
@@ -23677,7 +23783,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>36583</v>
       </c>
@@ -23691,7 +23797,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>40761</v>
       </c>
@@ -23705,7 +23811,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>40845</v>
       </c>
@@ -23719,7 +23825,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>40852</v>
       </c>
@@ -23733,7 +23839,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>40859</v>
       </c>
@@ -23747,7 +23853,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>41209</v>
       </c>
@@ -23761,7 +23867,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>41251</v>
       </c>
@@ -23775,7 +23881,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>41269</v>
       </c>
@@ -23789,7 +23895,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>42869</v>
       </c>
@@ -23803,7 +23909,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>43232</v>
       </c>
@@ -23817,7 +23923,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>43323</v>
       </c>
@@ -23831,7 +23937,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>43326</v>
       </c>
@@ -23845,7 +23951,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>43337</v>
       </c>
@@ -23859,7 +23965,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>43347</v>
       </c>
@@ -23873,7 +23979,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>43351</v>
       </c>
@@ -23887,7 +23993,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>43365</v>
       </c>
@@ -23901,7 +24007,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>43375</v>
       </c>
@@ -23915,7 +24021,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>43385</v>
       </c>
@@ -23929,7 +24035,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>43400</v>
       </c>
@@ -23943,7 +24049,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>43403</v>
       </c>
@@ -23957,7 +24063,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>43407</v>
       </c>
@@ -23971,7 +24077,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>43414</v>
       </c>
@@ -23985,7 +24091,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>43421</v>
       </c>
@@ -23999,7 +24105,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>43428</v>
       </c>
@@ -24013,7 +24119,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>43436</v>
       </c>
@@ -24027,7 +24133,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>43442</v>
       </c>
@@ -24041,7 +24147,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>43460</v>
       </c>
@@ -24055,7 +24161,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>43463</v>
       </c>
@@ -24069,7 +24175,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>43466</v>
       </c>
@@ -24083,7 +24189,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>43469</v>
       </c>
@@ -24097,7 +24203,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>43484</v>
       </c>
@@ -24111,7 +24217,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>43505</v>
       </c>
@@ -24125,7 +24231,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>43519</v>
       </c>
@@ -24139,7 +24245,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>43532</v>
       </c>
@@ -24153,7 +24259,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>43536</v>
       </c>
@@ -24167,7 +24273,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>43554</v>
       </c>
@@ -24181,7 +24287,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>43568</v>
       </c>
@@ -24195,7 +24301,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>43574</v>
       </c>
@@ -24209,7 +24315,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>43585</v>
       </c>
@@ -24223,7 +24329,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>43595</v>
       </c>
@@ -24237,7 +24343,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>43610</v>
       </c>
@@ -24251,7 +24357,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>43680</v>
       </c>
@@ -24265,7 +24371,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>43690</v>
       </c>
@@ -24279,7 +24385,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>43715</v>
       </c>
@@ -24293,7 +24399,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>43778</v>
       </c>
@@ -24307,7 +24413,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>43820</v>
       </c>
@@ -24321,7 +24427,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>43831</v>
       </c>
@@ -24335,7 +24441,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>43856</v>
       </c>
@@ -24349,7 +24455,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>43869</v>
       </c>
@@ -24363,7 +24469,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>30919</v>
       </c>
@@ -24377,7 +24483,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>30926</v>
       </c>
@@ -24391,7 +24497,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>30932</v>
       </c>
@@ -24405,7 +24511,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>30939</v>
       </c>
@@ -24419,7 +24525,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>30942</v>
       </c>
@@ -24433,7 +24539,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>30954</v>
       </c>
@@ -24447,7 +24553,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>30961</v>
       </c>
@@ -24461,7 +24567,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>30978</v>
       </c>
@@ -24475,7 +24581,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>30982</v>
       </c>
@@ -24489,7 +24595,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>30989</v>
       </c>
@@ -24503,7 +24609,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>30992</v>
       </c>
@@ -24517,7 +24623,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>31003</v>
       </c>
@@ -24531,7 +24637,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>31006</v>
       </c>
@@ -24545,7 +24651,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>31009</v>
       </c>
@@ -24559,7 +24665,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>31024</v>
       </c>
@@ -24573,7 +24679,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>31031</v>
       </c>
@@ -24587,7 +24693,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>31037</v>
       </c>
@@ -24601,7 +24707,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>31048</v>
       </c>
@@ -24615,7 +24721,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>31052</v>
       </c>
@@ -24629,7 +24735,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>31076</v>
       </c>
@@ -24643,7 +24749,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>31125</v>
       </c>
@@ -24657,7 +24763,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>31148</v>
       </c>
@@ -24671,7 +24777,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>31100</v>
       </c>
@@ -24685,7 +24791,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>31108</v>
       </c>
@@ -24699,7 +24805,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>31114</v>
       </c>
@@ -24713,7 +24819,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>31122</v>
       </c>
@@ -24727,7 +24833,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>31138</v>
       </c>
@@ -24741,7 +24847,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>31143</v>
       </c>
@@ -24755,7 +24861,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>31146</v>
       </c>
@@ -24769,7 +24875,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>31150</v>
       </c>
@@ -24783,7 +24889,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>31153</v>
       </c>
@@ -24797,7 +24903,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>31157</v>
       </c>
@@ -24811,7 +24917,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>31163</v>
       </c>
@@ -24825,7 +24931,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>31166</v>
       </c>
@@ -24839,7 +24945,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>31173</v>
       </c>
@@ -24853,7 +24959,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>31178</v>
       </c>
@@ -24867,7 +24973,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>26338</v>
       </c>
@@ -24881,7 +24987,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>25833</v>
       </c>
@@ -24895,14 +25001,456 @@
         <v>1788</v>
       </c>
     </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>25438</v>
+      </c>
+      <c r="B343">
+        <v>1969</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>25452</v>
+      </c>
+      <c r="B344">
+        <v>1969</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D344" s="7" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>25461</v>
+      </c>
+      <c r="B345">
+        <v>1969</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D345" s="7" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>25501</v>
+      </c>
+      <c r="B346">
+        <v>1969</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D346" s="7" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>25515</v>
+      </c>
+      <c r="B347">
+        <v>1969</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D347" s="7" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>25550</v>
+      </c>
+      <c r="B348">
+        <v>1969</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D348" s="7" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>25627</v>
+      </c>
+      <c r="B349">
+        <v>1969</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D349" s="7" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>25633</v>
+      </c>
+      <c r="B350">
+        <v>1969</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D350" s="7" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>25661</v>
+      </c>
+      <c r="B351">
+        <v>1969</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D351" s="7" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>25893</v>
+      </c>
+      <c r="B352">
+        <v>1970</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>25941</v>
+      </c>
+      <c r="B353">
+        <v>1970</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D353" s="7" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>25997</v>
+      </c>
+      <c r="B354">
+        <v>1970</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D354" s="7" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>26007</v>
+      </c>
+      <c r="B355">
+        <v>1970</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D355" s="7" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>26042</v>
+      </c>
+      <c r="B356">
+        <v>1970</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D356" s="7" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>26049</v>
+      </c>
+      <c r="B357">
+        <v>1970</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D357" s="7" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>26053</v>
+      </c>
+      <c r="B358">
+        <v>1970</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D358" s="7" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>26172</v>
+      </c>
+      <c r="B359">
+        <v>1971</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>26184</v>
+      </c>
+      <c r="B360">
+        <v>1971</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>26200</v>
+      </c>
+      <c r="B361">
+        <v>1971</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D361" s="7" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>26203</v>
+      </c>
+      <c r="B362">
+        <v>1971</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D362" s="7" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>26214</v>
+      </c>
+      <c r="B363">
+        <v>1971</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D363" s="7" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>26228</v>
+      </c>
+      <c r="B364">
+        <v>1971</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D364" s="7" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>26242</v>
+      </c>
+      <c r="B365">
+        <v>1971</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>26263</v>
+      </c>
+      <c r="B366">
+        <v>1971</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D366" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>26284</v>
+      </c>
+      <c r="B367">
+        <v>1971</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D367" s="7" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>26299</v>
+      </c>
+      <c r="B368">
+        <v>1971</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D368" s="7" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>26326</v>
+      </c>
+      <c r="B369">
+        <v>1971</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D369" s="7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>26375</v>
+      </c>
+      <c r="B370">
+        <v>1971</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D370" s="7" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>26385</v>
+      </c>
+      <c r="B371">
+        <v>1971</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>26389</v>
+      </c>
+      <c r="B372">
+        <v>1971</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D372" s="7" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>26396</v>
+      </c>
+      <c r="B373">
+        <v>1971</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D373" s="7" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>26427</v>
+      </c>
+      <c r="B374">
+        <v>1971</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D374" s="7" t="s">
+        <v>1909</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D342" xr:uid="{3727749B-F511-6849-AA4C-C9F59E183D85}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1989"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D342" xr:uid="{3727749B-F511-6849-AA4C-C9F59E183D85}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25039,10 +25587,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A99EB21-5886-9149-9482-9981E1D8BBB4}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25527,7 +26075,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1862</v>
       </c>
@@ -25541,7 +26089,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1862</v>
       </c>
@@ -25555,7 +26103,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1862</v>
       </c>
@@ -25569,7 +26117,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1862</v>
       </c>
@@ -25583,7 +26131,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1862</v>
       </c>
@@ -25597,7 +26145,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1862</v>
       </c>
@@ -25609,10 +26157,494 @@
       </c>
       <c r="D38">
         <v>1938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D39">
+        <v>1999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320C91C7-85FF-1E4D-B35D-8A6C7FF6B7EE}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="A1:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>25438</v>
+      </c>
+      <c r="B1">
+        <v>1969</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>25452</v>
+      </c>
+      <c r="B2">
+        <v>1969</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>25461</v>
+      </c>
+      <c r="B3">
+        <v>1969</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>25501</v>
+      </c>
+      <c r="B4">
+        <v>1969</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>25515</v>
+      </c>
+      <c r="B5">
+        <v>1969</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>25550</v>
+      </c>
+      <c r="B6">
+        <v>1969</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>25627</v>
+      </c>
+      <c r="B7">
+        <v>1969</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>25633</v>
+      </c>
+      <c r="B8">
+        <v>1969</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>25661</v>
+      </c>
+      <c r="B9">
+        <v>1969</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>25893</v>
+      </c>
+      <c r="B10">
+        <v>1970</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>25941</v>
+      </c>
+      <c r="B11">
+        <v>1970</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>25997</v>
+      </c>
+      <c r="B12">
+        <v>1970</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>26007</v>
+      </c>
+      <c r="B13">
+        <v>1970</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>26042</v>
+      </c>
+      <c r="B14">
+        <v>1970</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>26049</v>
+      </c>
+      <c r="B15">
+        <v>1970</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>26053</v>
+      </c>
+      <c r="B16">
+        <v>1970</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>26172</v>
+      </c>
+      <c r="B17">
+        <v>1971</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>26184</v>
+      </c>
+      <c r="B18">
+        <v>1971</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>26200</v>
+      </c>
+      <c r="B19">
+        <v>1971</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>26203</v>
+      </c>
+      <c r="B20">
+        <v>1971</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>26214</v>
+      </c>
+      <c r="B21">
+        <v>1971</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>26228</v>
+      </c>
+      <c r="B22">
+        <v>1971</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>26242</v>
+      </c>
+      <c r="B23">
+        <v>1971</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>26263</v>
+      </c>
+      <c r="B24">
+        <v>1971</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>26284</v>
+      </c>
+      <c r="B25">
+        <v>1971</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>26299</v>
+      </c>
+      <c r="B26">
+        <v>1971</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26326</v>
+      </c>
+      <c r="B27">
+        <v>1971</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26375</v>
+      </c>
+      <c r="B28">
+        <v>1971</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>26385</v>
+      </c>
+      <c r="B29">
+        <v>1971</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>26389</v>
+      </c>
+      <c r="B30">
+        <v>1971</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>26396</v>
+      </c>
+      <c r="B31">
+        <v>1971</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>26427</v>
+      </c>
+      <c r="B32">
+        <v>1971</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/master.xlsx
+++ b/data/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2160FE3-65AC-B844-A3D1-7CDE91273FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB93C2E-A846-8C4E-A430-5832E1E3C3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="620" windowWidth="28040" windowHeight="16320" activeTab="4" xr2:uid="{73E098EF-9F12-4A45-BF91-00B06203C89A}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6968" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6973" uniqueCount="2692">
   <si>
     <t>Name</t>
   </si>
@@ -8181,7 +8181,22 @@
     <t>/assets/players/Josh-Ginelly.svg</t>
   </si>
   <si>
-    <t>/assets/players/Jah-Harris.svg</t>
+    <t>/assets/players/Jay-Harris.svg</t>
+  </si>
+  <si>
+    <t>/assets/players/Chris-Malkin.svg</t>
+  </si>
+  <si>
+    <t>/assets/players/Steve-Vickers.svg</t>
+  </si>
+  <si>
+    <t>/assets/players/Ian-Nolan.svg</t>
+  </si>
+  <si>
+    <t>/assets/players/Graham-Branch.svg</t>
+  </si>
+  <si>
+    <t>/assets/players/John-McGreal.svg</t>
   </si>
 </sst>
 </file>
@@ -22028,8 +22043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA152F8-C83B-9049-B228-1F537083B3AF}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22235,6 +22250,9 @@
       <c r="D17" t="s">
         <v>1332</v>
       </c>
+      <c r="G17" t="s">
+        <v>2688</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -22287,6 +22305,9 @@
       <c r="D22" t="s">
         <v>1332</v>
       </c>
+      <c r="G22" t="s">
+        <v>2689</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -22395,6 +22416,9 @@
       <c r="D31" t="s">
         <v>1334</v>
       </c>
+      <c r="G31" t="s">
+        <v>2690</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -22406,8 +22430,11 @@
       <c r="D32" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1363</v>
       </c>
@@ -22415,7 +22442,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -22423,7 +22450,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1364</v>
       </c>
@@ -22431,7 +22458,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1365</v>
       </c>
@@ -22439,15 +22466,18 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1366</v>
       </c>
       <c r="D37" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1367</v>
       </c>
@@ -22455,7 +22485,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1368</v>
       </c>
@@ -22463,7 +22493,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1342</v>
       </c>
@@ -22471,7 +22501,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1369</v>
       </c>
@@ -22479,7 +22509,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1370</v>
       </c>
@@ -22487,7 +22517,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1371</v>
       </c>
@@ -22495,7 +22525,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1372</v>
       </c>
@@ -22503,7 +22533,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1373</v>
       </c>
@@ -22511,17 +22541,17 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1760</v>
       </c>
